--- a/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-61,3</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-70,44</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-88,33; -22,9</t>
+          <t>-4,65; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-91,27; -32,04</t>
+          <t>-2,89; 5,1</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-61,3%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,44%</t>
+          <t>81,91%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,33; -22,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-91,27; -32,04</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,39</t>
+          <t>26,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,11</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>11,06</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 52,61</t>
+          <t>0,41; 57,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 11,31</t>
+          <t>-22,75; 13,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 23,51</t>
+          <t>-4,27; 30,17</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>197,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>-13,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>48,23%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 288,07</t>
+          <t>-10,32; 1296,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 22,65</t>
+          <t>-54,04; 59,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 57,55</t>
+          <t>-20,12; 178,56</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,34</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-3,42</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 16,19</t>
+          <t>-14,49; 21,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 3,35</t>
+          <t>-21,58; 4,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 4,49</t>
+          <t>-14,45; 7,28</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,69%</t>
+          <t>-14,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>-6,68%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 30,57</t>
+          <t>-33,91; 99,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 5,76</t>
+          <t>-32,0; 7,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 7,53</t>
+          <t>-25,37; 16,03</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-3,01</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 7,58</t>
+          <t>-22,38; 9,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 2,65</t>
+          <t>-13,73; 14,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 0,63</t>
+          <t>-12,66; 7,2</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>-13,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>-5,68%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 13,38</t>
+          <t>-38,89; 20,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 3,63</t>
+          <t>-22,72; 29,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 1,49</t>
+          <t>-21,9; 15,21</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 10,89</t>
+          <t>-15,05; 19,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 8,96</t>
+          <t>-19,48; 17,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 6,05</t>
+          <t>-12,86; 13,54</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 22,67</t>
+          <t>-27,1; 51,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 14,48</t>
+          <t>-27,11; 31,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 9,97</t>
+          <t>-21,05; 27,95</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-15,12</t>
+          <t>-26,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-16,79</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-16,01</t>
+          <t>-16,42</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 0,95</t>
+          <t>-47,38; -5,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -0,26</t>
+          <t>-28,62; 15,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-27,53; -5,13</t>
+          <t>-30,56; -0,31</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-23,25%</t>
+          <t>-37,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-24,26%</t>
+          <t>-25,77%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 1,49</t>
+          <t>-61,63; -9,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,98; -1,13</t>
+          <t>-44,61; 34,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,94; -8,6</t>
+          <t>-43,45; -0,1</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 3,74</t>
+          <t>-7,72; 11,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -3,29</t>
+          <t>-10,49; 3,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -2,47</t>
+          <t>-6,83; 4,37</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>-3,6%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 6,68</t>
+          <t>-19,34; 33,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -5,32</t>
+          <t>-20,38; 8,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -4,08</t>
+          <t>-15,2; 10,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,183 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="n">
+        <v>-61.02054865229856</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-74.01515757337029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 10,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 5,1</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>88,86%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>81,91%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="n">
+        <v>-0.6102054865229856</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.7401515757337029</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>26,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,06</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 57,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,75; 13,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 30,17</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>197,25%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,14%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>48,23%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>32.02646582606657</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.337563786614888</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.95877114448197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,32; 1296,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-54,04; 59,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-20,12; 178,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.390866179208474</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-34.98338699900677</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.76255308453384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>67.89186689223678</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.72783564381958</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>38.09997100308982</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 21,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-21,58; 4,15</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 7,28</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.026911030409133</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1515835178192148</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2076863928812591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,38%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-14,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.170335939455044</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4870012545243897</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2214311282605688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-33,91; 99,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-32,0; 7,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-25,37; 16,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>7.492524705146544</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3247203468412697</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.255941416779328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +747,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,62</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>10.01599574716666</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.590716450530822</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.592286701963309</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-22,38; 9,05</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 14,08</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-12,66; 7,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.62969252329341</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-21.82648904538528</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-14.74855069021498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-13,08%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-5,68%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>31.32552117932205</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.187182113237453</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.818371292810374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-38,89; 20,2</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 29,51</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-21,9; 15,21</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.2159435753841754</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1239092833799584</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.04190872725049724</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2412119460812191</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2911006827133767</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2218901032828476</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-15,05; 19,74</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-19,48; 17,48</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; 13,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.9138815958080603</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1052688677058217</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1839129532279112</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-2,13%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-7.641549579817708</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4151106495829171</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.097760041629283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-27,1; 51,4</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-27,11; 31,16</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-21,05; 27,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-24.61424036039374</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.02500436013269</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-13.93622204082658</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-26,8</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-7,73</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-16,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.978471421166923</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.31314778589854</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.646803808672178</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-47,38; -5,59</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-28,62; 15,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-30,56; -0,31</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1282696784737179</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.006775694514197392</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05119488032440826</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-37,26%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-13,61%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-25,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.370977630201779</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1948047690366924</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2112759329036047</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-61,63; -9,89</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-44,61; 34,2</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-43,45; -0,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.169375317119437</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2669079679901325</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1477126986383877</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +959,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>2.150528915367944</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.742315461789223</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.3663024893413969</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 11,14</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; 3,55</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 4,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-15.55960294752264</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-21.52462620396722</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-11.23928864190211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-7,91%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-3,6%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>18.71056809119182</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>17.07675165592139</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>13.04321549681601</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 33,79</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 8,2</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; 10,7</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.03853382899907889</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.02619215676443373</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.006034024582239861</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2470197922782183</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2862731117233831</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1738447872250989</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.3941023379245905</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.3064947591154134</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2530162212020039</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-28.54321532501181</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-9.32147115800932</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-19.5402301249633</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-50.29643032434847</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-32.91014168181922</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-35.1713793250543</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>-5.660952002013836</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>14.25863968292598</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>-4.220568121979607</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.3787693998517349</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1292531718982552</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.264933004317509</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.6205951704085961</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4258936928952746</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.4522040019093647</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>-0.1001833994531415</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2131768749815909</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-0.06089558359997822</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.352792188995955</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-5.863130227508706</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-3.939932464459961</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-11.7964705944776</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-13.18091153692255</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-10.77116397145148</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>10.3268465069641</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.626578074439322</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.482671029593293</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.02434727290954121</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.08843002139288622</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.06400480351647703</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1932372369577435</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1933387441948067</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1689577794321923</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2180511753696753</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.03485966978895506</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.04182631874181621</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1275,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
